--- a/biology/Zoologie/Barbue_(poisson)/Barbue_(poisson).xlsx
+++ b/biology/Zoologie/Barbue_(poisson)/Barbue_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « barbue » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons.
 Certaines espèces sont issues de l'ordre des pleuronectiformes, à savoir des poissons plats :
-Scophthalmus rhombus, aussi appelé Barbue ou Barbue commune[1],[2],[3] ;
-Bothus mancus, aussi appelé Turbot tropical, Rombou tropicale, Sole tropicale ou Barbue ocellée[4],[5].
+Scophthalmus rhombus, aussi appelé Barbue ou Barbue commune ;
+Bothus mancus, aussi appelé Turbot tropical, Rombou tropicale, Sole tropicale ou Barbue ocellée,.
 D'autres viennent de l'ordre des siluriformes, à savoir des poissons-chats :
-Ameiurus catus, aussi appelé Poisson-chat blanc ou Barbue blanche[6] ;
-Ictalurus punctatus, aussi appelé Barbue de rivière, Barbue d'Amérique, Poisson-chat tacheté ou Ictalure tacheté[7],[8] ;
-Pylodictis olivaris, aussi appelé Barbue à tête plate[9].
+Ameiurus catus, aussi appelé Poisson-chat blanc ou Barbue blanche ;
+Ictalurus punctatus, aussi appelé Barbue de rivière, Barbue d'Amérique, Poisson-chat tacheté ou Ictalure tacheté, ;
+Pylodictis olivaris, aussi appelé Barbue à tête plate.
 			Scophthalmus rhombus.
 			Bothus mancus.
 			Ameiurus catus.
